--- a/datos.xlsx
+++ b/datos.xlsx
@@ -1,21 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\dinamicgraphicsr\dinamicgraphicsr\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>peso_promedio</t>
+  </si>
+  <si>
+    <t>longitud</t>
+  </si>
+  <si>
+    <t>ancho</t>
+  </si>
+  <si>
+    <t>espesor</t>
+  </si>
+  <si>
+    <t>caso_estudio</t>
+  </si>
+  <si>
+    <t>muestra</t>
+  </si>
+  <si>
+    <t>año</t>
+  </si>
+  <si>
+    <t>mes</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>humedad</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,6 +65,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -52,22 +100,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +166,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +198,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +233,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,109 +409,182 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>peso_promedio</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>longitud</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ancho</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>espesor</t>
-        </is>
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>25</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>1.4</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>21.96</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>12.32</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>8.19</v>
       </c>
+      <c r="G2">
+        <v>2021</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1.6</v>
+      </c>
+      <c r="D3">
+        <v>22.45</v>
+      </c>
+      <c r="E3">
+        <v>12.79</v>
+      </c>
+      <c r="F3">
+        <v>8.24</v>
+      </c>
+      <c r="G3">
+        <v>2021</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>26</v>
       </c>
-      <c r="B3">
-        <v>1.6</v>
-      </c>
-      <c r="C3">
-        <v>22.45</v>
-      </c>
-      <c r="D3">
-        <v>12.79</v>
-      </c>
-      <c r="E3">
-        <v>8.24</v>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1.29</v>
+      </c>
+      <c r="D4">
+        <v>24.97</v>
+      </c>
+      <c r="E4">
+        <v>13.8</v>
+      </c>
+      <c r="F4">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="G4">
+        <v>2021</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>0.32</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4">
-        <v>27</v>
-      </c>
-      <c r="B4">
-        <v>1.29</v>
-      </c>
-      <c r="C4">
-        <v>24.97</v>
-      </c>
-      <c r="D4">
-        <v>13.8</v>
-      </c>
-      <c r="E4">
-        <v>9.779999999999999</v>
-      </c>
-    </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>1.87</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>23.39</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>12.82</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>9.32</v>
+      </c>
+      <c r="G5">
+        <v>2021</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/datos.xlsx
+++ b/datos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\dinamicgraphicsr\dinamicgraphicsr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\dinamicgraphicsr2\dinamicgraphicsr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>peso_promedio</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>humedad</t>
+  </si>
+  <si>
+    <t>papa</t>
+  </si>
+  <si>
+    <t>peso2</t>
   </si>
 </sst>
 </file>
@@ -410,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +429,7 @@
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -454,8 +460,14 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>25</v>
       </c>
@@ -486,8 +498,14 @@
       <c r="J2">
         <v>0.8</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>25</v>
       </c>
@@ -518,8 +536,14 @@
       <c r="J3">
         <v>0.55000000000000004</v>
       </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>26</v>
       </c>
@@ -550,8 +574,14 @@
       <c r="J4">
         <v>0.32</v>
       </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>26</v>
       </c>
@@ -581,6 +611,12 @@
       </c>
       <c r="J5">
         <v>0.22</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
